--- a/biology/Microbiologie/Trimyema/Trimyema.xlsx
+++ b/biology/Microbiologie/Trimyema/Trimyema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trimyemidae
-Trimyema, unique représentant de la famille des Trimyemidae, est un genre de Ciliés de l’ordre des Trichostomatida[1] ou des Plagiopylida[2].
+Trimyema, unique représentant de la famille des Trimyemidae, est un genre de Ciliés de l’ordre des Trichostomatida ou des Plagiopylida.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Trimyema est composé du préfixe tri-, « trois », et du suffixe -myem dont la signification est obscure ; il pourrait dériver du grec μύειος / myeios, « muscle » ; l'auteur, J.B. Lackey, aurait voulu faire référence aux « trois rangées de cils somatiques en spirale » que l'on distingue, comme trois muscles, sur l'espèce type Trimyema compressum.
 </t>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après Richard Roksabro Kudo (1886–1967), le genre Trimyema a une forme ovoïde, plus ou moins aplatie ; l’extrémité antérieure est pointue, l’extrémité postérieure est similaire ou arrondie. L’organisme a un long cil caudal ; les cils somatiques sont sur trois à quatre rangées en spirale, généralement situés dans la moitié antérieure du corps. Le cytostome est rond, près de l'extrémité antérieure, avec un petit cytopharynx. Les noyaux sont centraux : le macronoyau est sphérique ; il est accompagné d’un petit micronoyau. On note la présence d’une vacuole contractile. L’organisme est un nageur actif[3].
-L'espèce Trimyema compressum (ou T. compressa) mesure environ 65 μm par 35 μm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Richard Roksabro Kudo (1886–1967), le genre Trimyema a une forme ovoïde, plus ou moins aplatie ; l’extrémité antérieure est pointue, l’extrémité postérieure est similaire ou arrondie. L’organisme a un long cil caudal ; les cils somatiques sont sur trois à quatre rangées en spirale, généralement situés dans la moitié antérieure du corps. Le cytostome est rond, près de l'extrémité antérieure, avec un petit cytopharynx. Les noyaux sont centraux : le macronoyau est sphérique ; il est accompagné d’un petit micronoyau. On note la présence d’une vacuole contractile. L’organisme est un nageur actif.
+L'espèce Trimyema compressum (ou T. compressa) mesure environ 65 μm par 35 μm.
 </t>
         </is>
       </c>
@@ -575,11 +591,13 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Trimyema vit librement en eau douce ou salée[3]. Le genre a été observé assez largement sur l'ensemble du globe[1]. C'est aussi un endocommensal d'invertébrés[4] notamment d'oursins[5].
-D'après James Bridges Lackey (d) (1893-1993), premier descripteur de cet organisme, Trimyema compressa est un véritable organisme anaérobie ; il est facile d'en isoler en petites quantités, dans des cultures de boues, en condition anaérobie[6].
-Trimyema compressum est également connu pour héberger des archées et des bactéries de la famille des Syntrophomonadaceae[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Trimyema vit librement en eau douce ou salée. Le genre a été observé assez largement sur l'ensemble du globe. C'est aussi un endocommensal d'invertébrés notamment d'oursins.
+D'après James Bridges Lackey (d) (1893-1993), premier descripteur de cet organisme, Trimyema compressa est un véritable organisme anaérobie ; il est facile d'en isoler en petites quantités, dans des cultures de boues, en condition anaérobie.
+Trimyema compressum est également connu pour héberger des archées et des bactéries de la famille des Syntrophomonadaceae.
 </t>
         </is>
       </c>
@@ -608,14 +626,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (16 octobre 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (16 octobre 2023) :
 Trimyema difficile Kahl, 1928
 Trimyema echinometrae Grolière, de Puytorac &amp; Grain, 1980
 Trimyema marinum Kahl, 1931
 Trimyema pleurispirale Borrow, 1972
-Selon GBIF       (16 octobre 2023)[1] :
+Selon GBIF       (16 octobre 2023) :
 Trimyema alfredkahli Tucolesco, 1962
 Trimyema claviformis Kahl, 1933
 Trimyema compressum Lackey, 1925
